--- a/_INTERPOLATION/area1_J.xlsx
+++ b/_INTERPOLATION/area1_J.xlsx
@@ -528,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3792,7 +3792,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4188,7 +4188,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4804,7 +4804,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -5104,7 +5104,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5616,7 +5616,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -5716,7 +5716,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -5920,7 +5920,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -6024,7 +6024,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -6540,7 +6540,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -6636,7 +6636,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6844,7 +6844,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -7252,7 +7252,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -7660,7 +7660,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -8064,7 +8064,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -8268,7 +8268,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -8368,7 +8368,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -8472,7 +8472,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -8672,7 +8672,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -8876,7 +8876,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -8976,7 +8976,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -9080,7 +9080,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -9180,7 +9180,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -9280,7 +9280,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -9384,7 +9384,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -9488,7 +9488,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -9692,7 +9692,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -9796,7 +9796,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -9900,7 +9900,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -10108,7 +10108,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -10416,7 +10416,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -10520,7 +10520,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -10720,7 +10720,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -10820,7 +10820,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -10916,7 +10916,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -11020,7 +11020,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -11328,7 +11328,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -11428,7 +11428,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -11528,7 +11528,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -11628,7 +11628,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -11728,7 +11728,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -11828,7 +11828,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -11928,7 +11928,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -12024,7 +12024,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -12128,7 +12128,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -12228,7 +12228,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -12432,7 +12432,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -12532,7 +12532,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -12636,7 +12636,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -12736,7 +12736,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -12836,7 +12836,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -12940,7 +12940,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -13044,7 +13044,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -13248,7 +13248,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -13348,7 +13348,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -13448,7 +13448,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -13552,7 +13552,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -13656,7 +13656,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -13756,7 +13756,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -13856,7 +13856,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -14064,7 +14064,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -14164,7 +14164,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -14264,7 +14264,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -14368,7 +14368,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -14468,7 +14468,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -14572,7 +14572,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -14780,7 +14780,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -14884,7 +14884,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -14984,7 +14984,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -15084,7 +15084,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -15184,7 +15184,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -15288,7 +15288,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -15392,7 +15392,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -15492,7 +15492,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -15696,7 +15696,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -15796,7 +15796,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -15892,7 +15892,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -15996,7 +15996,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -16100,7 +16100,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -16204,7 +16204,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -16308,7 +16308,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -16412,7 +16412,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -16516,7 +16516,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -16620,7 +16620,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -16724,7 +16724,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -16820,7 +16820,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -16924,7 +16924,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -17024,7 +17024,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -17328,7 +17328,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -17428,7 +17428,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -17528,7 +17528,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -17628,7 +17628,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -17732,7 +17732,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -17832,7 +17832,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -17932,7 +17932,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -18032,7 +18032,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -18132,7 +18132,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -18336,7 +18336,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -18440,7 +18440,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -18540,7 +18540,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -18640,7 +18640,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -18740,7 +18740,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -18840,7 +18840,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -18940,7 +18940,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -19044,7 +19044,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -19140,7 +19140,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -19340,7 +19340,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -19440,7 +19440,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -19544,7 +19544,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -19648,7 +19648,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -19752,7 +19752,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -19856,7 +19856,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -20060,7 +20060,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -20164,7 +20164,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -20268,7 +20268,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -20372,7 +20372,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -20472,7 +20472,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -20572,7 +20572,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -20672,7 +20672,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -20880,7 +20880,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -20984,7 +20984,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -21088,7 +21088,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -21188,7 +21188,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -21292,7 +21292,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -21504,7 +21504,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -21612,7 +21612,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -21716,7 +21716,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -21820,7 +21820,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -21920,7 +21920,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -22020,7 +22020,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -22224,7 +22224,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -22324,7 +22324,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -22424,7 +22424,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -22528,7 +22528,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -22836,7 +22836,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -22940,7 +22940,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -23044,7 +23044,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -23140,7 +23140,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -23244,7 +23244,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -23344,7 +23344,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -23444,7 +23444,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -23548,7 +23548,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -23648,7 +23648,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -23748,7 +23748,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -23848,7 +23848,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -23952,7 +23952,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -24056,7 +24056,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -24160,7 +24160,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -24260,7 +24260,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -24364,7 +24364,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -24472,7 +24472,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -24572,7 +24572,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -24676,7 +24676,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -24776,7 +24776,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -24876,7 +24876,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -24976,7 +24976,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -25076,7 +25076,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -25180,7 +25180,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -25280,7 +25280,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -25380,7 +25380,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -25484,7 +25484,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -25588,7 +25588,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -25688,7 +25688,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -25788,7 +25788,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -25884,7 +25884,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -25984,7 +25984,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -26088,7 +26088,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -26188,7 +26188,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -26292,7 +26292,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -26396,7 +26396,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -26496,7 +26496,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -26600,7 +26600,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -26700,7 +26700,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -26800,7 +26800,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -26904,7 +26904,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -27008,7 +27008,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -27108,7 +27108,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -27208,7 +27208,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -27308,7 +27308,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -27412,7 +27412,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -27516,7 +27516,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -27616,7 +27616,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -27712,7 +27712,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -27820,7 +27820,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -27920,7 +27920,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -28020,7 +28020,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -28120,7 +28120,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -28224,7 +28224,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -28328,7 +28328,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -28432,7 +28432,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -28532,7 +28532,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -28632,7 +28632,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -28736,7 +28736,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -28836,7 +28836,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -28932,7 +28932,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -29032,7 +29032,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -29132,7 +29132,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -29232,7 +29232,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -29332,7 +29332,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -29436,7 +29436,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -29540,7 +29540,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -29644,7 +29644,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -29748,7 +29748,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -29852,7 +29852,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -29956,7 +29956,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -30056,7 +30056,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -30156,7 +30156,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -30256,7 +30256,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -30356,7 +30356,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -30456,7 +30456,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -30560,7 +30560,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -30664,7 +30664,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -30764,7 +30764,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -30864,7 +30864,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -30964,7 +30964,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -31068,7 +31068,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -31168,7 +31168,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -31268,7 +31268,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -31368,7 +31368,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -31472,7 +31472,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -31576,7 +31576,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -31676,7 +31676,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -31776,7 +31776,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -31880,7 +31880,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -31980,7 +31980,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -32084,7 +32084,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -32184,7 +32184,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -32284,7 +32284,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -32388,7 +32388,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -32492,7 +32492,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -32596,7 +32596,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -32692,7 +32692,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -32792,7 +32792,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -32892,7 +32892,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -33000,7 +33000,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -33096,7 +33096,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -33196,7 +33196,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -33300,7 +33300,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -33400,7 +33400,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -33508,7 +33508,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -33612,7 +33612,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -33712,7 +33712,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -33812,7 +33812,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -33916,7 +33916,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -34016,7 +34016,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -34120,7 +34120,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -34224,7 +34224,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -34328,7 +34328,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -34432,7 +34432,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -34532,7 +34532,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -34640,7 +34640,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
@@ -34744,7 +34744,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -34848,7 +34848,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -34948,7 +34948,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
@@ -35048,7 +35048,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
@@ -35148,7 +35148,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -35248,7 +35248,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -35348,7 +35348,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -35452,7 +35452,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -35552,7 +35552,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -35656,7 +35656,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -35756,7 +35756,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -35856,7 +35856,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -35960,7 +35960,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -36064,7 +36064,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -36164,7 +36164,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -36268,7 +36268,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -36372,7 +36372,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -36476,7 +36476,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -36576,7 +36576,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -36680,7 +36680,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -36780,7 +36780,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -36876,7 +36876,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -36980,7 +36980,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -37080,7 +37080,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -37184,7 +37184,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -37288,7 +37288,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -37384,7 +37384,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -37484,7 +37484,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -37584,7 +37584,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -37688,7 +37688,7 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -37788,7 +37788,7 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -37888,7 +37888,7 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -37988,7 +37988,7 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -38088,7 +38088,7 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
@@ -38188,7 +38188,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
@@ -38288,7 +38288,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -38388,7 +38388,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
@@ -38488,7 +38488,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -38588,7 +38588,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -38688,7 +38688,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -38788,7 +38788,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -38892,7 +38892,7 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -39000,7 +39000,7 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -39108,7 +39108,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -39208,7 +39208,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
@@ -39308,7 +39308,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -39416,7 +39416,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
@@ -39516,7 +39516,7 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
@@ -39620,7 +39620,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
@@ -39720,7 +39720,7 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -39820,7 +39820,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -39924,7 +39924,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
@@ -40024,7 +40024,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
@@ -40124,7 +40124,7 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
@@ -40228,7 +40228,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
@@ -40328,7 +40328,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
@@ -40428,7 +40428,7 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
@@ -40528,7 +40528,7 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
@@ -40624,7 +40624,7 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
@@ -40728,7 +40728,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -40828,7 +40828,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
@@ -40928,7 +40928,7 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
@@ -41028,7 +41028,7 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
@@ -41132,7 +41132,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
@@ -41228,7 +41228,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
@@ -41328,7 +41328,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
@@ -41428,7 +41428,7 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
@@ -41532,7 +41532,7 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
@@ -41632,7 +41632,7 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -41740,7 +41740,7 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
@@ -41840,7 +41840,7 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
@@ -41948,7 +41948,7 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
@@ -42052,7 +42052,7 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
@@ -42152,7 +42152,7 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
@@ -42252,7 +42252,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
@@ -42352,7 +42352,7 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
@@ -42456,7 +42456,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
@@ -42560,7 +42560,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
@@ -42660,7 +42660,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
@@ -42760,7 +42760,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
@@ -42860,7 +42860,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -42960,7 +42960,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
@@ -43060,7 +43060,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
@@ -43164,7 +43164,7 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
@@ -43264,7 +43264,7 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
@@ -43364,7 +43364,7 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
@@ -43464,7 +43464,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
@@ -43568,7 +43568,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
@@ -43668,7 +43668,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
@@ -43768,7 +43768,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
@@ -43868,7 +43868,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
@@ -43964,7 +43964,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
@@ -44072,7 +44072,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
@@ -44168,7 +44168,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
@@ -44268,7 +44268,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
@@ -44368,7 +44368,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
@@ -44468,7 +44468,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F434" t="inlineStr">
@@ -44572,7 +44572,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F435" t="inlineStr">
@@ -44672,7 +44672,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F436" t="inlineStr">
@@ -44772,7 +44772,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
@@ -44876,7 +44876,7 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
@@ -44980,7 +44980,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
@@ -45080,7 +45080,7 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
@@ -45184,7 +45184,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
@@ -45288,7 +45288,7 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
@@ -45388,7 +45388,7 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F443" t="inlineStr">
@@ -45484,7 +45484,7 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F444" t="inlineStr">
@@ -45588,7 +45588,7 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
@@ -45684,7 +45684,7 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
@@ -45784,7 +45784,7 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
@@ -45888,7 +45888,7 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
@@ -45984,7 +45984,7 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
@@ -46080,7 +46080,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F450" t="inlineStr">
@@ -46180,7 +46180,7 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
@@ -46284,7 +46284,7 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
@@ -46388,7 +46388,7 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
@@ -46492,7 +46492,7 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
@@ -46588,7 +46588,7 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
@@ -46688,7 +46688,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F456" t="inlineStr">
@@ -46788,7 +46788,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
@@ -46892,7 +46892,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
@@ -46992,7 +46992,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
@@ -47092,7 +47092,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
@@ -47196,7 +47196,7 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
@@ -47296,7 +47296,7 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
@@ -47400,7 +47400,7 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
@@ -47500,7 +47500,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
@@ -47600,7 +47600,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
@@ -47696,7 +47696,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
@@ -47796,7 +47796,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
@@ -47900,7 +47900,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
@@ -47996,7 +47996,7 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
@@ -48096,7 +48096,7 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
@@ -48196,7 +48196,7 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -48300,7 +48300,7 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
@@ -48400,7 +48400,7 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
@@ -48496,7 +48496,7 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
@@ -48600,7 +48600,7 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
@@ -48708,7 +48708,7 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
@@ -48812,7 +48812,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F477" t="inlineStr">
@@ -48912,7 +48912,7 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
@@ -49020,7 +49020,7 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
@@ -49124,7 +49124,7 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
@@ -49224,7 +49224,7 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
@@ -49324,7 +49324,7 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
@@ -49424,7 +49424,7 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
@@ -49524,7 +49524,7 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
@@ -49628,7 +49628,7 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
@@ -49728,7 +49728,7 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
@@ -49828,7 +49828,7 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F487" t="inlineStr">
@@ -49932,7 +49932,7 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F488" t="inlineStr">
@@ -50036,7 +50036,7 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F489" t="inlineStr">
@@ -50136,7 +50136,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F490" t="inlineStr">
@@ -50232,7 +50232,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F491" t="inlineStr">
@@ -50328,7 +50328,7 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F492" t="inlineStr">
@@ -50428,7 +50428,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F493" t="inlineStr">
@@ -50532,7 +50532,7 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
@@ -50640,7 +50640,7 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F495" t="inlineStr">
@@ -50736,7 +50736,7 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F496" t="inlineStr">
@@ -50840,7 +50840,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F497" t="inlineStr">
@@ -50940,7 +50940,7 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F498" t="inlineStr">
@@ -51040,7 +51040,7 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F499" t="inlineStr">
@@ -51140,7 +51140,7 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F500" t="inlineStr">
@@ -51244,7 +51244,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
@@ -51340,7 +51340,7 @@
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
@@ -51444,7 +51444,7 @@
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F503" t="inlineStr">
@@ -51544,7 +51544,7 @@
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F504" t="inlineStr">
@@ -51644,7 +51644,7 @@
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F505" t="inlineStr">
@@ -51748,7 +51748,7 @@
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F506" t="inlineStr">
@@ -51848,7 +51848,7 @@
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F507" t="inlineStr">
@@ -51948,7 +51948,7 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
@@ -52048,7 +52048,7 @@
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F509" t="inlineStr">
@@ -52152,7 +52152,7 @@
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F510" t="inlineStr">
@@ -52256,7 +52256,7 @@
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F511" t="inlineStr">
@@ -52356,7 +52356,7 @@
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F512" t="inlineStr">
@@ -52464,7 +52464,7 @@
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F513" t="inlineStr">
@@ -52564,7 +52564,7 @@
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F514" t="inlineStr">
@@ -52672,7 +52672,7 @@
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F515" t="inlineStr">
@@ -52772,7 +52772,7 @@
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F516" t="inlineStr">
@@ -52872,7 +52872,7 @@
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F517" t="inlineStr">
@@ -52972,7 +52972,7 @@
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F518" t="inlineStr">
@@ -53072,7 +53072,7 @@
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F519" t="inlineStr">
@@ -53172,7 +53172,7 @@
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F520" t="inlineStr">
@@ -53272,7 +53272,7 @@
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F521" t="inlineStr">
@@ -53372,7 +53372,7 @@
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F522" t="inlineStr">
@@ -53476,7 +53476,7 @@
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F523" t="inlineStr">
@@ -53576,7 +53576,7 @@
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F524" t="inlineStr">
@@ -53680,7 +53680,7 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F525" t="inlineStr">
@@ -53784,7 +53784,7 @@
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F526" t="inlineStr">
@@ -53884,7 +53884,7 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F527" t="inlineStr">
@@ -53984,7 +53984,7 @@
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F528" t="inlineStr">
@@ -54084,7 +54084,7 @@
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F529" t="inlineStr">
@@ -54184,7 +54184,7 @@
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F530" t="inlineStr">
@@ -54284,7 +54284,7 @@
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F531" t="inlineStr">
@@ -54384,7 +54384,7 @@
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F532" t="inlineStr">
@@ -54484,7 +54484,7 @@
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F533" t="inlineStr">
@@ -54584,7 +54584,7 @@
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F534" t="inlineStr">
@@ -54688,7 +54688,7 @@
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F535" t="inlineStr">
@@ -54788,7 +54788,7 @@
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F536" t="inlineStr">
@@ -54888,7 +54888,7 @@
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F537" t="inlineStr">
@@ -54988,7 +54988,7 @@
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F538" t="inlineStr">
@@ -55088,7 +55088,7 @@
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F539" t="inlineStr">
@@ -55184,7 +55184,7 @@
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
@@ -55284,7 +55284,7 @@
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F541" t="inlineStr">
@@ -55388,7 +55388,7 @@
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F542" t="inlineStr">
@@ -55484,7 +55484,7 @@
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F543" t="inlineStr">
@@ -55584,7 +55584,7 @@
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F544" t="inlineStr">
@@ -55684,7 +55684,7 @@
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F545" t="inlineStr">
@@ -55784,7 +55784,7 @@
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F546" t="inlineStr">
@@ -55884,7 +55884,7 @@
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F547" t="inlineStr">
@@ -55984,7 +55984,7 @@
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F548" t="inlineStr">
@@ -56084,7 +56084,7 @@
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F549" t="inlineStr">
@@ -56184,7 +56184,7 @@
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F550" t="inlineStr">
@@ -56284,7 +56284,7 @@
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F551" t="inlineStr">
@@ -56380,7 +56380,7 @@
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F552" t="inlineStr">
@@ -56476,7 +56476,7 @@
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
@@ -56576,7 +56576,7 @@
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F554" t="inlineStr">
@@ -56676,7 +56676,7 @@
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F555" t="inlineStr">
@@ -56776,7 +56776,7 @@
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F556" t="inlineStr">
@@ -56876,7 +56876,7 @@
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F557" t="inlineStr">
@@ -56976,7 +56976,7 @@
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F558" t="inlineStr">
@@ -57080,7 +57080,7 @@
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F559" t="inlineStr">
@@ -57180,7 +57180,7 @@
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F560" t="inlineStr">
@@ -57284,7 +57284,7 @@
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F561" t="inlineStr">
@@ -57384,7 +57384,7 @@
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F562" t="inlineStr">
@@ -57480,7 +57480,7 @@
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F563" t="inlineStr">
@@ -57580,7 +57580,7 @@
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F564" t="inlineStr">
@@ -57676,7 +57676,7 @@
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F565" t="inlineStr">
@@ -57776,7 +57776,7 @@
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F566" t="inlineStr">
@@ -57876,7 +57876,7 @@
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F567" t="inlineStr">
@@ -57980,7 +57980,7 @@
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
@@ -58080,7 +58080,7 @@
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
@@ -58180,7 +58180,7 @@
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
@@ -58280,7 +58280,7 @@
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F571" t="inlineStr">
@@ -58380,7 +58380,7 @@
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F572" t="inlineStr">
@@ -58484,7 +58484,7 @@
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F573" t="inlineStr">
@@ -58580,7 +58580,7 @@
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F574" t="inlineStr">
@@ -58684,7 +58684,7 @@
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F575" t="inlineStr">
@@ -58784,7 +58784,7 @@
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F576" t="inlineStr">
@@ -58884,7 +58884,7 @@
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F577" t="inlineStr">
@@ -58984,7 +58984,7 @@
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F578" t="inlineStr">
@@ -59088,7 +59088,7 @@
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F579" t="inlineStr">
@@ -59192,7 +59192,7 @@
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F580" t="inlineStr">
@@ -59292,7 +59292,7 @@
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F581" t="inlineStr">
@@ -59396,7 +59396,7 @@
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F582" t="inlineStr">
@@ -59500,7 +59500,7 @@
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F583" t="inlineStr">
@@ -59596,7 +59596,7 @@
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F584" t="inlineStr">
@@ -59696,7 +59696,7 @@
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F585" t="inlineStr">
@@ -59796,7 +59796,7 @@
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F586" t="inlineStr">
@@ -59896,7 +59896,7 @@
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F587" t="inlineStr">
@@ -60000,7 +60000,7 @@
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F588" t="inlineStr">
@@ -60104,7 +60104,7 @@
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F589" t="inlineStr">
@@ -60204,7 +60204,7 @@
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F590" t="inlineStr">
@@ -60300,7 +60300,7 @@
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F591" t="inlineStr">
@@ -60396,7 +60396,7 @@
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F592" t="inlineStr">
@@ -60496,7 +60496,7 @@
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F593" t="inlineStr">
@@ -60604,7 +60604,7 @@
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F594" t="inlineStr">
@@ -60704,7 +60704,7 @@
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F595" t="inlineStr">
@@ -60804,7 +60804,7 @@
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F596" t="inlineStr">
@@ -60900,7 +60900,7 @@
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F597" t="inlineStr">
@@ -61004,7 +61004,7 @@
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F598" t="inlineStr">
@@ -61108,7 +61108,7 @@
       </c>
       <c r="E599" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F599" t="inlineStr">
@@ -61208,7 +61208,7 @@
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F600" t="inlineStr">
@@ -61304,7 +61304,7 @@
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F601" t="inlineStr">
@@ -61408,7 +61408,7 @@
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F602" t="inlineStr">
@@ -61512,7 +61512,7 @@
       </c>
       <c r="E603" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F603" t="inlineStr">
@@ -61612,7 +61612,7 @@
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F604" t="inlineStr">
@@ -61716,7 +61716,7 @@
       </c>
       <c r="E605" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F605" t="inlineStr">
@@ -61812,7 +61812,7 @@
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F606" t="inlineStr">
@@ -61912,7 +61912,7 @@
       </c>
       <c r="E607" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F607" t="inlineStr">
@@ -62008,7 +62008,7 @@
       </c>
       <c r="E608" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F608" t="inlineStr">
@@ -62108,7 +62108,7 @@
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F609" t="inlineStr">
@@ -62204,7 +62204,7 @@
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F610" t="inlineStr">
@@ -62304,7 +62304,7 @@
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F611" t="inlineStr">
@@ -62404,7 +62404,7 @@
       </c>
       <c r="E612" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F612" t="inlineStr">
@@ -62504,7 +62504,7 @@
       </c>
       <c r="E613" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F613" t="inlineStr">
@@ -62608,7 +62608,7 @@
       </c>
       <c r="E614" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F614" t="inlineStr">
@@ -62708,7 +62708,7 @@
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F615" t="inlineStr">
@@ -62812,7 +62812,7 @@
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F616" t="inlineStr">
@@ -62908,7 +62908,7 @@
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F617" t="inlineStr">
@@ -63012,7 +63012,7 @@
       </c>
       <c r="E618" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F618" t="inlineStr">
@@ -63112,7 +63112,7 @@
       </c>
       <c r="E619" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F619" t="inlineStr">
@@ -63208,7 +63208,7 @@
       </c>
       <c r="E620" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F620" t="inlineStr">
@@ -63308,7 +63308,7 @@
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F621" t="inlineStr">
@@ -63408,7 +63408,7 @@
       </c>
       <c r="E622" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F622" t="inlineStr">
@@ -63508,7 +63508,7 @@
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F623" t="inlineStr">
@@ -63608,7 +63608,7 @@
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F624" t="inlineStr">
@@ -63708,7 +63708,7 @@
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F625" t="inlineStr">
@@ -63812,7 +63812,7 @@
       </c>
       <c r="E626" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F626" t="inlineStr">
@@ -63908,7 +63908,7 @@
       </c>
       <c r="E627" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F627" t="inlineStr">
@@ -64012,7 +64012,7 @@
       </c>
       <c r="E628" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F628" t="inlineStr">
@@ -64116,7 +64116,7 @@
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F629" t="inlineStr">
@@ -64216,7 +64216,7 @@
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F630" t="inlineStr">
@@ -64320,7 +64320,7 @@
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F631" t="inlineStr">
